--- a/BalanceSheet/TRU_bal.xlsx
+++ b/BalanceSheet/TRU_bal.xlsx
@@ -1653,19 +1653,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>7200000.0</v>
+        <v>204000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>11400000.0</v>
+        <v>193000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-21500000.0</v>
+        <v>187000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>16500000.0</v>
+        <v>198000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>12300000.0</v>
+        <v>187000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>176200000.0</v>
@@ -2899,19 +2899,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>4000000.0</v>
+        <v>443000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-10100000.0</v>
+        <v>397000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-14000000.0</v>
+        <v>431000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-10600000.0</v>
+        <v>438000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-600000.0</v>
+        <v>448000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>439100000.0</v>
@@ -5066,7 +5066,7 @@
         <v>3402000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>3427000000.0</v>
+        <v>3403200000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>3410100000.0</v>
@@ -5191,7 +5191,7 @@
         <v>3721000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>3735000000.0</v>
+        <v>3677300000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>3646000000.0</v>
